--- a/biology/Médecine/Tamara_Dangouloff/Tamara_Dangouloff.xlsx
+++ b/biology/Médecine/Tamara_Dangouloff/Tamara_Dangouloff.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Tamara Dangouloff est une scientifique belge, docteure en santé publique. Elle est spécialiste du dépistage néonatal de l'amyotrophie spinale pour lequel elle a été primée par l'Académie Royale de Médecine de Belgique[1]. Elle est aussi chercheuse et cheffe du projet BabyDetect[2] .  
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Tamara Dangouloff est une scientifique belge, docteure en santé publique. Elle est spécialiste du dépistage néonatal de l'amyotrophie spinale pour lequel elle a été primée par l'Académie Royale de Médecine de Belgique. Elle est aussi chercheuse et cheffe du projet BabyDetect .  
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Tamara Dangouloff a suivi de nombreuses formations au cours de sa carrière. Elle s'est tout d'abord formée en tant qu'infirmière et puéricultrice à Paris. Elle a ensuite complété son apprentissage par deux masters : l'un en Organisation de la Santé et l'autre en Analyse du travail. Par la suite, elle a entamé un doctorat en santé publique grâce auquel elle a reçu le prix de l'Académie pour la microbiologie, parasitologie, immunologie, santé publique, médecine légale et bioéthique. Sa thèse de doctorat, intitulée « Analyse médico-économique du dépistage néonatal de l'amyotrophie spinale en Fédération Wallonie-Bruxelles », démontre l'importance du dépistage néonatal de l'amyotrophie spinale aussi bien sur le plan économique que pour la qualité de vie de l'enfant, afin d'éviter les sévices dus à l'absence de dépistage[1]. 
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Tamara Dangouloff a suivi de nombreuses formations au cours de sa carrière. Elle s'est tout d'abord formée en tant qu'infirmière et puéricultrice à Paris. Elle a ensuite complété son apprentissage par deux masters : l'un en Organisation de la Santé et l'autre en Analyse du travail. Par la suite, elle a entamé un doctorat en santé publique grâce auquel elle a reçu le prix de l'Académie pour la microbiologie, parasitologie, immunologie, santé publique, médecine légale et bioéthique. Sa thèse de doctorat, intitulée « Analyse médico-économique du dépistage néonatal de l'amyotrophie spinale en Fédération Wallonie-Bruxelles », démontre l'importance du dépistage néonatal de l'amyotrophie spinale aussi bien sur le plan économique que pour la qualité de vie de l'enfant, afin d'éviter les sévices dus à l'absence de dépistage. 
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Projet BabyDetect</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ce projet se focalise sur plus de 120 maladies génétiques détectées chez les patients dès la petite enfance. Ces maladies peuvent être dépistées dès la naissance ce qui permet de les prendre en charge le plus tôt possible. Grâce aux études réalisées par Tamara Dangouloff et ses collègues, il est prouvé que les coûts de dépistage néonatal et de traitement précoce sont moins élevés que les coûts de traitement du handicap quand la maladie se développe[3]. L'équipe travaillant sur ce projet est composée de Frédéric Minner, Davood Mashhadizadeh, Léonor Palmeira, Kristine Hovhanneysan, Laura Helou, François Boemer, Prof; Laurent Servais et Tamara Dangouloff, la cheffe du projet[4].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce projet se focalise sur plus de 120 maladies génétiques détectées chez les patients dès la petite enfance. Ces maladies peuvent être dépistées dès la naissance ce qui permet de les prendre en charge le plus tôt possible. Grâce aux études réalisées par Tamara Dangouloff et ses collègues, il est prouvé que les coûts de dépistage néonatal et de traitement précoce sont moins élevés que les coûts de traitement du handicap quand la maladie se développe. L'équipe travaillant sur ce projet est composée de Frédéric Minner, Davood Mashhadizadeh, Léonor Palmeira, Kristine Hovhanneysan, Laura Helou, François Boemer, Prof; Laurent Servais et Tamara Dangouloff, la cheffe du projet.
 </t>
         </is>
       </c>
